--- a/core_df_qu.xlsx
+++ b/core_df_qu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>FS</t>
   </si>
@@ -52,271 +52,268 @@
     <t>Fervian</t>
   </si>
   <si>
+    <t>AhJit</t>
+  </si>
+  <si>
+    <t>Xcalibur</t>
+  </si>
+  <si>
+    <t>charlie</t>
+  </si>
+  <si>
+    <t>leo</t>
+  </si>
+  <si>
+    <t>Sh</t>
+  </si>
+  <si>
+    <t>YawaR</t>
+  </si>
+  <si>
+    <t>hFn k3</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>Nisha</t>
+  </si>
+  <si>
+    <t>rtz</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>vtFαded</t>
+  </si>
+  <si>
+    <t>Timado</t>
+  </si>
+  <si>
+    <t>Resolut1on</t>
+  </si>
+  <si>
+    <t>Gabbi</t>
+  </si>
+  <si>
+    <t>Emperor Crimson</t>
+  </si>
+  <si>
+    <t>Miracle-</t>
+  </si>
+  <si>
+    <t>Daxak</t>
+  </si>
+  <si>
+    <t>Monet</t>
+  </si>
+  <si>
+    <t>Nikobaby竜の道</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Madara</t>
+  </si>
+  <si>
+    <t>busen</t>
+  </si>
+  <si>
+    <t>dream`</t>
+  </si>
+  <si>
+    <t>Vlaicuu</t>
+  </si>
+  <si>
+    <t>Rajjix</t>
+  </si>
+  <si>
+    <t>Ameame</t>
+  </si>
+  <si>
+    <t>skem</t>
+  </si>
+  <si>
+    <t>Moo</t>
+  </si>
+  <si>
+    <t>ThuG-</t>
+  </si>
+  <si>
+    <t>Supream^</t>
+  </si>
+  <si>
+    <t>RAMZeS666</t>
+  </si>
+  <si>
+    <t>Crystallize</t>
+  </si>
+  <si>
+    <t>Sylar</t>
+  </si>
+  <si>
+    <t>Berna</t>
+  </si>
+  <si>
+    <t>iLTW</t>
+  </si>
+  <si>
+    <t>miCKe</t>
+  </si>
+  <si>
+    <t>Arms</t>
+  </si>
+  <si>
+    <t>k`wonderkid</t>
+  </si>
+  <si>
+    <t>Paparazi灬</t>
+  </si>
+  <si>
+    <t>ragingpotato</t>
+  </si>
+  <si>
+    <t>Meracle-</t>
+  </si>
+  <si>
+    <t>taisukeeeee</t>
+  </si>
+  <si>
+    <t>Teehee</t>
+  </si>
+  <si>
+    <t>AtuunN</t>
+  </si>
+  <si>
+    <t>MATUMBAMAN</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>Pyw</t>
+  </si>
+  <si>
+    <t>NeverEnd</t>
+  </si>
+  <si>
+    <t>fn</t>
+  </si>
+  <si>
+    <t>Silent</t>
+  </si>
+  <si>
+    <t>Naive-</t>
+  </si>
+  <si>
+    <t>JT-</t>
+  </si>
+  <si>
+    <t>skiter</t>
+  </si>
+  <si>
+    <t>Costabile</t>
+  </si>
+  <si>
+    <t>Palantimos</t>
+  </si>
+  <si>
+    <t>old chicken</t>
+  </si>
+  <si>
+    <t>EternaLEnVy</t>
+  </si>
+  <si>
+    <t>Sammyboy</t>
+  </si>
+  <si>
+    <t>Kuku^</t>
+  </si>
+  <si>
+    <t>Scourge McDuck</t>
+  </si>
+  <si>
+    <t>lil pleb</t>
+  </si>
+  <si>
+    <t>Illidan Stormrage SF46</t>
+  </si>
+  <si>
+    <t>nada</t>
+  </si>
+  <si>
+    <t>BSJ</t>
+  </si>
+  <si>
+    <t>Kōtarō</t>
+  </si>
+  <si>
     <t>ana</t>
   </si>
   <si>
-    <t>hFn k3</t>
-  </si>
-  <si>
-    <t>AhJit</t>
-  </si>
-  <si>
-    <t>Xcalibur</t>
-  </si>
-  <si>
-    <t>Nisha</t>
-  </si>
-  <si>
-    <t>charlie</t>
-  </si>
-  <si>
-    <t>YawaR</t>
-  </si>
-  <si>
-    <t>leo</t>
-  </si>
-  <si>
-    <t>Raven</t>
-  </si>
-  <si>
-    <t>rtz</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>vtFαded</t>
-  </si>
-  <si>
-    <t>Timado</t>
-  </si>
-  <si>
-    <t>Resolut1on</t>
-  </si>
-  <si>
-    <t>Miracle-</t>
-  </si>
-  <si>
-    <t>Gabbi</t>
-  </si>
-  <si>
-    <t>Ace</t>
-  </si>
-  <si>
-    <t>Daxak</t>
-  </si>
-  <si>
-    <t>dream`</t>
-  </si>
-  <si>
-    <t>Monet</t>
-  </si>
-  <si>
-    <t>Nikobaby竜の道</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>RAMZeS666</t>
-  </si>
-  <si>
-    <t>Gh</t>
-  </si>
-  <si>
-    <t>Emperor Crimson</t>
-  </si>
-  <si>
-    <t>busen</t>
-  </si>
-  <si>
-    <t>Vlaicuu</t>
-  </si>
-  <si>
-    <t>Rajjix</t>
-  </si>
-  <si>
-    <t>Ameame</t>
-  </si>
-  <si>
-    <t>skem</t>
-  </si>
-  <si>
-    <t>Madara</t>
-  </si>
-  <si>
-    <t>Moo</t>
-  </si>
-  <si>
-    <t>Supream^</t>
-  </si>
-  <si>
-    <t>Sylar</t>
-  </si>
-  <si>
-    <t>Berna</t>
-  </si>
-  <si>
-    <t>miCKe</t>
-  </si>
-  <si>
-    <t>Palantimos</t>
-  </si>
-  <si>
-    <t>Arms</t>
-  </si>
-  <si>
-    <t>k`wonderkid</t>
-  </si>
-  <si>
-    <t>Sh</t>
-  </si>
-  <si>
-    <t>Crystallize</t>
-  </si>
-  <si>
-    <t>Paparazi灬</t>
-  </si>
-  <si>
-    <t>ragingpotato</t>
-  </si>
-  <si>
-    <t>ThuG-</t>
-  </si>
-  <si>
-    <t>Meracle-</t>
-  </si>
-  <si>
-    <t>taisukeeeee</t>
-  </si>
-  <si>
-    <t>Teehee</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>RodjER</t>
-  </si>
-  <si>
-    <t>AtuunN</t>
-  </si>
-  <si>
-    <t>iLTW</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>Pyw</t>
-  </si>
-  <si>
-    <t>NeverEnd</t>
-  </si>
-  <si>
-    <t>fn</t>
-  </si>
-  <si>
-    <t>Silent</t>
-  </si>
-  <si>
-    <t>Naive-</t>
-  </si>
-  <si>
-    <t>MATUMBAMAN</t>
-  </si>
-  <si>
-    <t>JT-</t>
-  </si>
-  <si>
-    <t>skiter</t>
-  </si>
-  <si>
-    <t>Costabile</t>
-  </si>
-  <si>
-    <t>old chicken</t>
-  </si>
-  <si>
-    <t>EternaLEnVy</t>
-  </si>
-  <si>
-    <t>Kōtarō</t>
-  </si>
-  <si>
-    <t>Sammyboy</t>
-  </si>
-  <si>
-    <t>Illidan Stormrage SF46</t>
-  </si>
-  <si>
-    <t>Kuku^</t>
-  </si>
-  <si>
-    <t>Scourge McDuck</t>
-  </si>
-  <si>
-    <t>lil pleb</t>
-  </si>
-  <si>
-    <t>nada</t>
-  </si>
-  <si>
-    <t>BSJ</t>
-  </si>
-  <si>
-    <t>Madara^</t>
+    <t xml:space="preserve">k1 el cacha viejas de 26 </t>
   </si>
   <si>
     <t>old eLeVeN</t>
   </si>
   <si>
+    <t>eGo</t>
+  </si>
+  <si>
+    <t>MinD_ContRoL</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>ritsu</t>
+  </si>
+  <si>
+    <t>bobo</t>
+  </si>
+  <si>
+    <t>Moogy</t>
+  </si>
+  <si>
     <t>Frost</t>
   </si>
   <si>
-    <t>eGo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k1 el cacha viejas de 26 </t>
-  </si>
-  <si>
-    <t>ritsu</t>
-  </si>
-  <si>
-    <t>MinD_ContRoL</t>
-  </si>
-  <si>
-    <t>bobo</t>
-  </si>
-  <si>
-    <t>Moogy</t>
+    <t>430</t>
   </si>
   <si>
     <t>Boxi</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>MSS-</t>
   </si>
   <si>
     <t>Red</t>
   </si>
   <si>
+    <t>Skylark</t>
+  </si>
+  <si>
     <t>洞爺湖</t>
   </si>
   <si>
+    <t>Lelis</t>
+  </si>
+  <si>
     <t>Yang</t>
   </si>
   <si>
     <t>Malik</t>
   </si>
   <si>
-    <t>Lelis</t>
+    <t>Buugi</t>
   </si>
   <si>
     <t>Ohaiyo</t>
@@ -325,117 +322,120 @@
     <t>Xepher</t>
   </si>
   <si>
+    <t>Shachlo</t>
+  </si>
+  <si>
+    <t>Sccc</t>
+  </si>
+  <si>
+    <t>V-Tune</t>
+  </si>
+  <si>
+    <t>qojqva</t>
+  </si>
+  <si>
+    <t>Sneyking</t>
+  </si>
+  <si>
+    <t>kpii</t>
+  </si>
+  <si>
+    <t>Xxs</t>
+  </si>
+  <si>
+    <t>Wisper</t>
+  </si>
+  <si>
+    <t>HeStEJoE-RoTTeN</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>FoREv</t>
+  </si>
+  <si>
+    <t>Faith_bian</t>
+  </si>
+  <si>
+    <t>MoonMeander</t>
+  </si>
+  <si>
+    <t>Universe</t>
+  </si>
+  <si>
+    <t>Bokerino</t>
+  </si>
+  <si>
+    <t>Fey</t>
+  </si>
+  <si>
+    <t>Miposhka</t>
+  </si>
+  <si>
+    <t>0ld_AKyJlbi4</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>剑来！</t>
+  </si>
+  <si>
     <t>zai</t>
   </si>
   <si>
-    <t>Shachlo</t>
-  </si>
-  <si>
-    <t>Sccc</t>
-  </si>
-  <si>
-    <t>V-Tune</t>
-  </si>
-  <si>
-    <t>Sneyking</t>
-  </si>
-  <si>
-    <t>kpii</t>
-  </si>
-  <si>
-    <t>Xxs</t>
-  </si>
-  <si>
-    <t>HeStEJoE-RoTTeN</t>
-  </si>
-  <si>
-    <t>Fear</t>
-  </si>
-  <si>
-    <t>FoREv</t>
-  </si>
-  <si>
-    <t>Faith_bian</t>
-  </si>
-  <si>
-    <t>0ld_AKyJlbi4</t>
-  </si>
-  <si>
-    <t>MoonMeander</t>
-  </si>
-  <si>
-    <t>Universe</t>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>Mcy</t>
+  </si>
+  <si>
+    <t>Chalice</t>
+  </si>
+  <si>
+    <t>9pasha</t>
+  </si>
+  <si>
+    <t>Deth</t>
+  </si>
+  <si>
+    <t>Blizzy</t>
+  </si>
+  <si>
+    <t>Wolfgang</t>
+  </si>
+  <si>
+    <t>iceiceice</t>
+  </si>
+  <si>
+    <t>hyko</t>
+  </si>
+  <si>
+    <t>KheZu</t>
+  </si>
+  <si>
+    <t>Dendi</t>
+  </si>
+  <si>
+    <t>ifrit</t>
+  </si>
+  <si>
+    <t>Srf</t>
+  </si>
+  <si>
+    <t>Brax</t>
+  </si>
+  <si>
+    <t>rsi</t>
+  </si>
+  <si>
+    <t>Rappy</t>
   </si>
   <si>
     <t>Ceb</t>
   </si>
   <si>
-    <t>Bokerino</t>
-  </si>
-  <si>
-    <t>Fey</t>
-  </si>
-  <si>
-    <t>Miposhka</t>
-  </si>
-  <si>
-    <t>剑来！</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>Wisper</t>
-  </si>
-  <si>
-    <t>Mcy</t>
-  </si>
-  <si>
-    <t>Chalice</t>
-  </si>
-  <si>
-    <t>Deth</t>
-  </si>
-  <si>
-    <t>Blizzy</t>
-  </si>
-  <si>
-    <t>Wolfgang</t>
-  </si>
-  <si>
-    <t>iceiceice</t>
-  </si>
-  <si>
-    <t>hyko</t>
-  </si>
-  <si>
-    <t>KheZu</t>
-  </si>
-  <si>
-    <t>Dendi</t>
-  </si>
-  <si>
-    <t>ifrit</t>
-  </si>
-  <si>
-    <t>Srf</t>
-  </si>
-  <si>
-    <t>Brax</t>
-  </si>
-  <si>
-    <t>Skylark</t>
-  </si>
-  <si>
-    <t>rsi</t>
-  </si>
-  <si>
-    <t>Rappy</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
     <t>Jonassomfan</t>
   </si>
   <si>
@@ -454,33 +454,27 @@
     <t>Velo</t>
   </si>
   <si>
+    <t>Frank-</t>
+  </si>
+  <si>
+    <t>Ewe</t>
+  </si>
+  <si>
+    <t>Luk</t>
+  </si>
+  <si>
     <t>tavo</t>
   </si>
   <si>
-    <t>Ewe</t>
-  </si>
-  <si>
-    <t>Luk</t>
-  </si>
-  <si>
-    <t>9pasha</t>
-  </si>
-  <si>
     <t>007</t>
   </si>
   <si>
     <t>DkPhobos</t>
   </si>
   <si>
-    <t>Buugi</t>
-  </si>
-  <si>
     <t>Ceyler</t>
   </si>
   <si>
-    <t>Frank-</t>
-  </si>
-  <si>
     <t>Sedoy</t>
   </si>
   <si>
@@ -511,129 +505,126 @@
     <t>joel</t>
   </si>
   <si>
+    <t>Kazl</t>
+  </si>
+  <si>
     <t>Maden</t>
   </si>
   <si>
-    <t>Kazl</t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
     <t>Tudi</t>
   </si>
   <si>
+    <t>p4pita</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>chshrct</t>
+  </si>
+  <si>
+    <t>bOne7</t>
+  </si>
+  <si>
+    <t>Vihren</t>
+  </si>
+  <si>
+    <t>Flyby</t>
+  </si>
+  <si>
+    <t>XinQ</t>
+  </si>
+  <si>
+    <t>boris</t>
+  </si>
+  <si>
+    <t>H1j4ck</t>
+  </si>
+  <si>
+    <t>Swiftending</t>
+  </si>
+  <si>
+    <t>oldWhite</t>
+  </si>
+  <si>
+    <t>4dr &lt;3 Déia</t>
+  </si>
+  <si>
+    <t>Rayuur</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Aville</t>
+  </si>
+  <si>
+    <t>Flensmeister</t>
+  </si>
+  <si>
+    <t>Chappie</t>
+  </si>
+  <si>
+    <t>csj</t>
+  </si>
+  <si>
+    <t>xiao8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret </t>
+  </si>
+  <si>
+    <t>MYSmoon</t>
+  </si>
+  <si>
+    <t>murd0c</t>
+  </si>
+  <si>
+    <t>Ghostik</t>
+  </si>
+  <si>
+    <t>SamH</t>
+  </si>
+  <si>
+    <t>Jano</t>
+  </si>
+  <si>
+    <t>Lasthero-</t>
+  </si>
+  <si>
+    <t>Lorelei</t>
+  </si>
+  <si>
+    <t>Versatile</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>doodle</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>Guvara</t>
+  </si>
+  <si>
+    <t>blackreaper</t>
+  </si>
+  <si>
+    <t>Unravel</t>
+  </si>
+  <si>
     <t>Benjaz</t>
   </si>
   <si>
-    <t>s4</t>
-  </si>
-  <si>
-    <t>bOne7</t>
-  </si>
-  <si>
-    <t>Vihren</t>
-  </si>
-  <si>
-    <t>633</t>
-  </si>
-  <si>
-    <t>Flyby</t>
-  </si>
-  <si>
-    <t>p4pita</t>
-  </si>
-  <si>
-    <t>XinQ</t>
-  </si>
-  <si>
-    <t>boris</t>
-  </si>
-  <si>
-    <t>H1j4ck</t>
-  </si>
-  <si>
-    <t>chshrct</t>
-  </si>
-  <si>
-    <t>Swiftending</t>
-  </si>
-  <si>
-    <t>oldWhite</t>
-  </si>
-  <si>
-    <t>4dr &lt;3 Déia</t>
-  </si>
-  <si>
-    <t>Rayuur</t>
-  </si>
-  <si>
-    <t>Ms</t>
-  </si>
-  <si>
-    <t>Aville</t>
-  </si>
-  <si>
-    <t>Flensmeister</t>
-  </si>
-  <si>
-    <t>Chappie</t>
-  </si>
-  <si>
-    <t>csj</t>
-  </si>
-  <si>
-    <t>xiao8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret </t>
-  </si>
-  <si>
-    <t>MYSmoon</t>
-  </si>
-  <si>
-    <t>murd0c</t>
-  </si>
-  <si>
-    <t>Ghostik</t>
-  </si>
-  <si>
-    <t>SamH</t>
-  </si>
-  <si>
-    <t>Jano</t>
-  </si>
-  <si>
-    <t>Lasthero-</t>
-  </si>
-  <si>
-    <t>Lorelei</t>
-  </si>
-  <si>
-    <t>Versatile</t>
-  </si>
-  <si>
-    <t>yokyjke</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>doodle</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>Guvara</t>
-  </si>
-  <si>
-    <t>blackreaper</t>
-  </si>
-  <si>
-    <t>Unravel</t>
-  </si>
-  <si>
     <t>Panthera</t>
   </si>
   <si>
@@ -674,9 +665,6 @@
   </si>
   <si>
     <t>TheChosenOne</t>
-  </si>
-  <si>
-    <t>tw.tv/ark_dota</t>
   </si>
   <si>
     <t>ky xY`</t>
@@ -1067,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E231"/>
+  <dimension ref="A1:E228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,16 +1216,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>171.9677687789349</v>
+        <v>452.3951294554929</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>12.28341205563821</v>
+        <v>12.226895390689</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1245,16 +1233,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>331.3466905502016</v>
+        <v>243.3495984391846</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>12.27209965000747</v>
+        <v>12.16747992195923</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1262,16 +1250,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>452.3951294554929</v>
+        <v>121.3785407690767</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>12.226895390689</v>
+        <v>12.13785407690767</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1279,16 +1267,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>243.3495984391846</v>
+        <v>193.8822680620432</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>12.16747992195923</v>
+        <v>12.1176417538777</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1296,16 +1284,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>328.1162277977653</v>
+        <v>120.9668407534985</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>12.15245288139871</v>
+        <v>12.09668407534985</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1313,16 +1301,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>121.3785407690767</v>
+        <v>169.3080525634689</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <v>12.13785407690767</v>
+        <v>12.09343232596206</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1330,16 +1318,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>169.3080525634689</v>
+        <v>386.3634491730872</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>12.09343232596206</v>
+        <v>12.07385778665897</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1347,16 +1335,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>273.2735207708151</v>
+        <v>558.0232526088635</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E17">
-        <v>11.88145742481805</v>
+        <v>11.87283516189071</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1364,16 +1352,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>558.0232526088635</v>
+        <v>249.2377111612192</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>11.87283516189071</v>
+        <v>11.86846243624853</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1398,16 +1386,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>423.7922126112016</v>
+        <v>553.8806890590571</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>11.77200590586671</v>
+        <v>11.78469551189483</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1415,16 +1403,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>94.09191899836252</v>
+        <v>423.7922126112016</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>11.76148987479531</v>
+        <v>11.77200590586671</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1432,16 +1420,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>513.2349400096928</v>
+        <v>94.09191899836252</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>11.66443045476574</v>
+        <v>11.76148987479531</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1449,16 +1437,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>418.2904167357289</v>
+        <v>513.2349400096928</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E23">
-        <v>11.61917824265914</v>
+        <v>11.66443045476574</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1466,16 +1454,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>451.8225119931874</v>
+        <v>418.2904167357289</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>11.58519261520993</v>
+        <v>11.61917824265914</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1500,16 +1488,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>653.4620597659239</v>
+        <v>274.0903568224387</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>11.46424666256007</v>
+        <v>11.42043153426828</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1517,157 +1505,157 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>625.1951251535438</v>
+        <v>338.5593309382881</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E27">
-        <v>11.3671840937008</v>
+        <v>11.28531103127627</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
+      <c r="A28" s="1">
+        <v>136829091</v>
       </c>
       <c r="B28">
-        <v>508.6804258639418</v>
+        <v>665.1396532511746</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E28">
-        <v>11.30400946364315</v>
+        <v>11.27355344493516</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>682.9317845595373</v>
+        <v>484.56059710739</v>
       </c>
       <c r="C29">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E29">
-        <v>11.19560302556618</v>
+        <v>11.2688510955207</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>369.3393664757763</v>
+        <v>682.9317845595373</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E30">
-        <v>11.19210201441746</v>
+        <v>11.19560302556618</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>369.3393664757763</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
         <v>33</v>
       </c>
-      <c r="B31">
-        <v>55.86646283409091</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
       <c r="E31">
-        <v>11.17329256681818</v>
+        <v>11.19210201441746</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>469.0731980127193</v>
+        <v>55.86646283409091</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>11.16840947649332</v>
+        <v>11.17329256681818</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>100.1650861842169</v>
+        <v>737.4955790202639</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E33">
-        <v>11.12945402046855</v>
+        <v>11.00739670179498</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>278.0703568224387</v>
+        <v>131.6543733863933</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>11.12281427289755</v>
+        <v>10.97119778219944</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>131.6543733863933</v>
+        <v>383.0080381080883</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E35">
-        <v>10.97119778219944</v>
+        <v>10.94308680308824</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>130.774849992549</v>
@@ -1684,7 +1672,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>65.30564564842246</v>
@@ -1701,7 +1689,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>521.50008306429</v>
@@ -1718,7 +1706,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>97.70449780317428</v>
@@ -1735,41 +1723,41 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>801.7753045203505</v>
+        <v>517.8390930230418</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E40">
-        <v>10.83480141243717</v>
+        <v>10.78831443798004</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>517.8390930230418</v>
+        <v>53.84209347633595</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>10.78831443798004</v>
+        <v>10.76841869526719</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>53.53758117435898</v>
@@ -1786,143 +1774,143 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>488.5370596716698</v>
+        <v>373.4667274127858</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>10.6203708624276</v>
+        <v>10.67047792607959</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>243.8405859288557</v>
+        <v>542.0186538676155</v>
       </c>
       <c r="C44">
         <v>30</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E44">
-        <v>10.60176460560242</v>
+        <v>10.62781674250227</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>443.6701564663231</v>
+        <v>488.5370596716698</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D45">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E45">
-        <v>10.56357515396007</v>
+        <v>10.6203708624276</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>284.3810300526628</v>
+        <v>243.8405859288557</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D46">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E46">
-        <v>10.53263074269122</v>
+        <v>10.60176460560242</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>126.1818957646309</v>
+        <v>475.5313601688202</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E47">
-        <v>10.51515798038591</v>
+        <v>10.56736355930712</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>336.2184627024812</v>
+        <v>443.6701564663231</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E48">
-        <v>10.50682695945254</v>
+        <v>10.56357515396007</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>157.5757249387799</v>
+        <v>126.1818957646309</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E49">
-        <v>10.50504832925199</v>
+        <v>10.51515798038591</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>636.7477677451286</v>
+        <v>336.2184627024812</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E50">
-        <v>10.43848799582178</v>
+        <v>10.50682695945254</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>594.5236149915088</v>
@@ -1939,7 +1927,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>176.9063280649388</v>
@@ -1956,755 +1944,755 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>104.0279089435909</v>
+        <v>499.1208100039097</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E53">
-        <v>10.40279089435909</v>
+        <v>10.39835020841478</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>499.1208100039097</v>
+        <v>72.69404051756862</v>
       </c>
       <c r="C54">
         <v>10</v>
       </c>
       <c r="D54">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>10.39835020841478</v>
+        <v>10.38486293108123</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>72.69404051756862</v>
+        <v>31.00948251748252</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>10.38486293108123</v>
+        <v>10.33649417249417</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>31.00948251748252</v>
+        <v>657.6840748508034</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E56">
-        <v>10.33649417249417</v>
+        <v>10.2763136695438</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>51.24622212973348</v>
+        <v>133.4796885276319</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E57">
-        <v>10.2492444259467</v>
+        <v>10.26766834827938</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>102.3858644669471</v>
+        <v>51.24622212973348</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>10.23858644669471</v>
+        <v>10.2492444259467</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>735.9936650312126</v>
+        <v>30.42829900991596</v>
       </c>
       <c r="C59">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>10.22213423654462</v>
+        <v>10.14276633663865</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>508.3192713636767</v>
+        <v>273.1142348681597</v>
       </c>
       <c r="C60">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D60">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E60">
-        <v>10.16638542727353</v>
+        <v>10.11534203215406</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>30.42829900991596</v>
+        <v>341.9214678942749</v>
       </c>
       <c r="C61">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E61">
-        <v>10.14276633663865</v>
+        <v>10.05651376159632</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>273.1142348681597</v>
+        <v>130.6452172258062</v>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D62">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E62">
-        <v>10.11534203215406</v>
+        <v>10.04963209429279</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>341.9214678942749</v>
+        <v>351.2206727371866</v>
       </c>
       <c r="C63">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D63">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E63">
-        <v>10.05651376159632</v>
+        <v>10.03487636391962</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>130.6452172258062</v>
+        <v>197.0005824702676</v>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E64">
-        <v>10.04963209429279</v>
+        <v>9.85002912351338</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>351.2206727371866</v>
+        <v>352.0162071805925</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D65">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E65">
-        <v>10.03487636391962</v>
+        <v>9.778227977238679</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="1" t="s">
-        <v>68</v>
+      <c r="A66" s="1">
+        <v>56351509</v>
       </c>
       <c r="B66">
-        <v>197.0005824702676</v>
+        <v>1423.273845202968</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="E66">
-        <v>9.85002912351338</v>
+        <v>9.748450994540873</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>117.5356021321774</v>
+        <v>544.7321418932854</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D67">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E67">
-        <v>9.79463351101478</v>
+        <v>9.727359676665811</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>352.0162071805925</v>
+        <v>475.6622814153317</v>
       </c>
       <c r="C68">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D68">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E68">
-        <v>9.778227977238679</v>
+        <v>9.707393498272076</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>643.6539807648285</v>
+        <v>164.8977489431005</v>
       </c>
       <c r="C69">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D69">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E69">
-        <v>9.75233304189134</v>
+        <v>9.699867584888267</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="1">
-        <v>56351509</v>
+      <c r="A70" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>1423.273845202968</v>
+        <v>348.2289390503096</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D70">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="E70">
-        <v>9.748450994540873</v>
+        <v>9.673026084730823</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>475.6622814153317</v>
+        <v>384.537904166205</v>
       </c>
       <c r="C71">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E71">
-        <v>9.707393498272076</v>
+        <v>9.613447604155125</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>348.2289390503096</v>
+        <v>295.0370239412656</v>
       </c>
       <c r="C72">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D72">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E72">
-        <v>9.673026084730823</v>
+        <v>9.517323352944052</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>384.537904166205</v>
+        <v>530.533038522238</v>
       </c>
       <c r="C73">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D73">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E73">
-        <v>9.613447604155125</v>
+        <v>9.473804259325679</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>268.3524140348635</v>
+        <v>104.1881661061692</v>
       </c>
       <c r="C74">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>9.584014786959411</v>
+        <v>9.471651464197196</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>295.0370239412656</v>
+        <v>9.457000000000001</v>
       </c>
       <c r="C75">
         <v>8</v>
       </c>
       <c r="D75">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>9.517323352944052</v>
+        <v>9.457000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>360.174174834424</v>
+        <v>264.73971124551</v>
       </c>
       <c r="C76">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D76">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E76">
-        <v>9.478267758800632</v>
+        <v>9.454989687339642</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>530.533038522238</v>
+        <v>122.4941023185065</v>
       </c>
       <c r="C77">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D77">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E77">
-        <v>9.473804259325679</v>
+        <v>9.42262325526973</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>104.1881661061692</v>
+        <v>103.282713396434</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>11</v>
       </c>
       <c r="E78">
-        <v>9.471651464197196</v>
+        <v>9.389337581494003</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>9.457000000000001</v>
+        <v>187.0105997794822</v>
       </c>
       <c r="C79">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E79">
-        <v>9.457000000000001</v>
+        <v>9.350529988974111</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>122.4941023185065</v>
+        <v>46.56273056759721</v>
       </c>
       <c r="C80">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <v>9.42262325526973</v>
+        <v>9.312546113519442</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>103.282713396434</v>
+        <v>91.54740584095023</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D81">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E81">
-        <v>9.389337581494003</v>
+        <v>9.154740584095023</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>55.47138864300263</v>
+        <v>356.5580812706661</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D82">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E82">
-        <v>9.245231440500438</v>
+        <v>9.142514904376053</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>356.5580812706661</v>
+        <v>388.9275359714463</v>
       </c>
       <c r="C83">
         <v>60</v>
       </c>
       <c r="D83">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E83">
-        <v>9.142514904376053</v>
+        <v>9.044826417940612</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>551.7582358888991</v>
+        <v>387.6296788205335</v>
       </c>
       <c r="C84">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E84">
-        <v>9.045216981785231</v>
+        <v>9.014643693500778</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>388.9275359714463</v>
+        <v>422.2107306089146</v>
       </c>
       <c r="C85">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E85">
-        <v>9.044826417940612</v>
+        <v>8.983207034232224</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>125.7860129909502</v>
+        <v>260.2506868577611</v>
       </c>
       <c r="C86">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D86">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E86">
-        <v>8.984715213639303</v>
+        <v>8.974161615784867</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>260.2506868577611</v>
+        <v>26.69838990527149</v>
       </c>
       <c r="C87">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D87">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>8.974161615784867</v>
+        <v>8.899463301757164</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>454.8669938512211</v>
+        <v>310.1645421711884</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D88">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E88">
-        <v>8.918960663749433</v>
+        <v>8.861844062033953</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>26.69838990527149</v>
+        <v>468.4191754743829</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E89">
-        <v>8.899463301757164</v>
+        <v>8.838097650460055</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>310.1645421711884</v>
+        <v>26.41333108333333</v>
       </c>
       <c r="C90">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D90">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>8.861844062033953</v>
+        <v>8.804443694444444</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>513.3278109134286</v>
+        <v>447.4338125422407</v>
       </c>
       <c r="C91">
         <v>18</v>
       </c>
       <c r="D91">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E91">
-        <v>8.85047949850739</v>
+        <v>8.773212010632172</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>26.41333108333333</v>
+        <v>121.333445858595</v>
       </c>
       <c r="C92">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E92">
-        <v>8.804443694444444</v>
+        <v>8.666674704185359</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>498.2301047349138</v>
+        <v>51.83111292912233</v>
       </c>
       <c r="C93">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D93">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E93">
-        <v>8.740879030437084</v>
+        <v>8.638518821520387</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>121.333445858595</v>
+        <v>155.4674819123849</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E94">
-        <v>8.666674704185359</v>
+        <v>8.63708232846583</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>51.83111292912233</v>
+        <v>86.2961307682322</v>
       </c>
       <c r="C95">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E95">
-        <v>8.638518821520387</v>
+        <v>8.629613076823221</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>86.2961307682322</v>
+        <v>275.0520171597445</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E96">
-        <v>8.629613076823221</v>
+        <v>8.595375536242017</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>488.8562500136314</v>
@@ -2721,7 +2709,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>17.12336337923077</v>
@@ -2738,24 +2726,24 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>332.2473639057095</v>
+        <v>68.42245032391548</v>
       </c>
       <c r="C99">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E99">
-        <v>8.519163177069474</v>
+        <v>8.552806290489436</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>552.7235532385062</v>
@@ -2772,7 +2760,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>42.44047585584817</v>
@@ -2789,75 +2777,75 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102">
-        <v>305.5634772014985</v>
+        <v>169.4513121850816</v>
       </c>
       <c r="C102">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E102">
-        <v>8.48787436670829</v>
+        <v>8.47256560925408</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103">
-        <v>169.4513121850816</v>
+        <v>16.91772041111111</v>
       </c>
       <c r="C103">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>8.47256560925408</v>
+        <v>8.458860205555556</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104">
-        <v>16.91772041111111</v>
+        <v>194.2914176560254</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E104">
-        <v>8.458860205555556</v>
+        <v>8.447452941566322</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105">
-        <v>194.2914176560254</v>
+        <v>16.8437619597561</v>
       </c>
       <c r="C105">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>8.447452941566322</v>
+        <v>8.421880979878049</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>344.0817594314955</v>
@@ -2874,7 +2862,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>478.0668315087418</v>
@@ -2891,7 +2879,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>384.9223030609524</v>
@@ -2908,92 +2896,92 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109">
-        <v>266.306501939138</v>
+        <v>266.5995240207509</v>
       </c>
       <c r="C109">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D109">
         <v>32</v>
       </c>
       <c r="E109">
-        <v>8.322078185598063</v>
+        <v>8.331235125648467</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110">
-        <v>107.5522707064628</v>
+        <v>266.306501939138</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D110">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E110">
-        <v>8.273251592804829</v>
+        <v>8.322078185598063</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>397.0389966436147</v>
+        <v>107.5522707064628</v>
       </c>
       <c r="C111">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E111">
-        <v>8.271645763408639</v>
+        <v>8.273251592804829</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112">
-        <v>355.5652776303743</v>
+        <v>397.0389966436147</v>
       </c>
       <c r="C112">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D112">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E112">
-        <v>8.268959944892426</v>
+        <v>8.271645763408639</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113">
-        <v>536.2973097236664</v>
+        <v>355.5652776303743</v>
       </c>
       <c r="C113">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D113">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E113">
-        <v>8.250727841902561</v>
+        <v>8.268959944892426</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>255.4909974606809</v>
@@ -3010,7 +2998,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>296.4483142322848</v>
@@ -3027,619 +3015,619 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116">
-        <v>410.5750725862669</v>
+        <v>180.3103389210268</v>
       </c>
       <c r="C116">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D116">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E116">
-        <v>8.211501451725336</v>
+        <v>8.195924496410306</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117">
-        <v>180.3103389210268</v>
+        <v>81.56184921174939</v>
       </c>
       <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
         <v>10</v>
       </c>
-      <c r="D117">
-        <v>22</v>
-      </c>
       <c r="E117">
-        <v>8.195924496410306</v>
+        <v>8.156184921174939</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118">
-        <v>81.56184921174939</v>
+        <v>56.9661668496914</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D118">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>8.156184921174939</v>
+        <v>8.1380238356702</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>56.9661668496914</v>
+        <v>430.7560531142343</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E119">
-        <v>8.1380238356702</v>
+        <v>8.127472700268571</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>145.5832798847526</v>
+        <v>373.6094374635435</v>
       </c>
       <c r="C120">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D120">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E120">
-        <v>8.087959993597366</v>
+        <v>8.121944292685727</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>88.87561455519482</v>
+        <v>145.5832798847526</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D121">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E121">
-        <v>8.079601323199528</v>
+        <v>8.087959993597366</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122">
-        <v>290.4189632228938</v>
+        <v>242.4421910152823</v>
       </c>
       <c r="C122">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D122">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E122">
-        <v>8.067193422858161</v>
+        <v>8.081406367176077</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>104.7764713517316</v>
+        <v>88.87561455519482</v>
       </c>
       <c r="C123">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D123">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E123">
-        <v>8.059728565517815</v>
+        <v>8.079601323199528</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>386.8516672869147</v>
+        <v>104.7764713517316</v>
       </c>
       <c r="C124">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D124">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E124">
-        <v>8.059409735144056</v>
+        <v>8.059728565517815</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125">
-        <v>383.9990198674598</v>
+        <v>386.8516672869147</v>
       </c>
       <c r="C125">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D125">
         <v>48</v>
       </c>
       <c r="E125">
-        <v>7.999979580572078</v>
+        <v>8.059409735144056</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>486.0233287582078</v>
+        <v>176.1305068526041</v>
       </c>
       <c r="C126">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D126">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E126">
-        <v>7.967595553413243</v>
+        <v>8.005932129663822</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>31.8269084530303</v>
+        <v>383.9990198674598</v>
       </c>
       <c r="C127">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E127">
-        <v>7.956727113257576</v>
+        <v>7.999979580572078</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128">
-        <v>286.3343640425662</v>
+        <v>407.2163147649839</v>
       </c>
       <c r="C128">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D128">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E128">
-        <v>7.953732334515727</v>
+        <v>7.984633622842821</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129">
-        <v>246.2086907915244</v>
+        <v>31.8269084530303</v>
       </c>
       <c r="C129">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D129">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>7.94221583198466</v>
+        <v>7.956727113257576</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130">
-        <v>545.9140338455035</v>
+        <v>286.3343640425662</v>
       </c>
       <c r="C130">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D130">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E130">
-        <v>7.911797591963818</v>
+        <v>7.953732334515727</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>7.901153846153846</v>
+        <v>246.2086907915244</v>
       </c>
       <c r="C131">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E131">
-        <v>7.901153846153846</v>
+        <v>7.94221583198466</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>284.2691600599361</v>
+        <v>545.9140338455035</v>
       </c>
       <c r="C132">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D132">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E132">
-        <v>7.896365557220447</v>
+        <v>7.911797591963818</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>370.7485815408926</v>
+        <v>7.901153846153846</v>
       </c>
       <c r="C133">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>7.888267692359417</v>
+        <v>7.901153846153846</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>468.2762727366527</v>
+        <v>284.2691600599361</v>
       </c>
       <c r="C134">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D134">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E134">
-        <v>7.804604545610878</v>
+        <v>7.896365557220447</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135">
-        <v>179.459122520018</v>
+        <v>370.7485815408926</v>
       </c>
       <c r="C135">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D135">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E135">
-        <v>7.802570544348606</v>
+        <v>7.888267692359417</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136">
-        <v>46.80606533513399</v>
+        <v>468.2762727366527</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D136">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E136">
-        <v>7.801010889188998</v>
+        <v>7.804604545610878</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>116.8930609895419</v>
+        <v>46.80606533513399</v>
       </c>
       <c r="C137">
         <v>10</v>
       </c>
       <c r="D137">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E137">
-        <v>7.792870732636123</v>
+        <v>7.801010889188998</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138">
-        <v>427.9206361746753</v>
+        <v>116.8930609895419</v>
       </c>
       <c r="C138">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D138">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E138">
-        <v>7.780375203175915</v>
+        <v>7.792870732636123</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>380.6578622858597</v>
+        <v>319.2743006089976</v>
       </c>
       <c r="C139">
         <v>15</v>
       </c>
       <c r="D139">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E139">
-        <v>7.768527801752239</v>
+        <v>7.787178063634087</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140">
-        <v>271.3204555258784</v>
+        <v>380.6578622858597</v>
       </c>
       <c r="C140">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D140">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E140">
-        <v>7.752013015025097</v>
+        <v>7.768527801752239</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>30.95286068853383</v>
+        <v>271.3204555258784</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E141">
-        <v>7.738215172133458</v>
+        <v>7.752013015025097</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142">
-        <v>208.0907623660281</v>
+        <v>30.95286068853383</v>
       </c>
       <c r="C142">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E142">
-        <v>7.707065272815856</v>
+        <v>7.738215172133458</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>76.91767362864779</v>
+        <v>208.0907623660281</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D143">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E143">
-        <v>7.691767362864779</v>
+        <v>7.707065272815856</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144">
-        <v>222.9937615757343</v>
+        <v>76.91767362864779</v>
       </c>
       <c r="C144">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D144">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E144">
-        <v>7.689440054335666</v>
+        <v>7.691767362864779</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145">
-        <v>291.6372734608292</v>
+        <v>222.9937615757343</v>
       </c>
       <c r="C145">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D145">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E145">
-        <v>7.674665091074452</v>
+        <v>7.689440054335666</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146">
-        <v>84.16721403807492</v>
+        <v>337.5498207747414</v>
       </c>
       <c r="C146">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D146">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E146">
-        <v>7.651564912552265</v>
+        <v>7.671586835789577</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147">
-        <v>15.28103981320158</v>
+        <v>84.16721403807492</v>
       </c>
       <c r="C147">
         <v>5</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E147">
-        <v>7.64051990660079</v>
+        <v>7.651564912552265</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148">
-        <v>220.8220060050691</v>
+        <v>15.28103981320158</v>
       </c>
       <c r="C148">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D148">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>7.614551931209281</v>
+        <v>7.64051990660079</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>37.75307491087676</v>
+        <v>243.573017760929</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E149">
-        <v>7.550614982175351</v>
+        <v>7.611656805029031</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150">
-        <v>165.2455997994956</v>
+        <v>37.75307491087676</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E150">
-        <v>7.511163627249801</v>
+        <v>7.550614982175351</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151">
-        <v>97.56723203095012</v>
+        <v>165.2455997994956</v>
       </c>
       <c r="C151">
         <v>6</v>
       </c>
       <c r="D151">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E151">
-        <v>7.505171694688471</v>
+        <v>7.511163627249801</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>67.49771825613898</v>
@@ -3656,347 +3644,347 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>389.2975791707943</v>
+        <v>7.4641045</v>
       </c>
       <c r="C153">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D153">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>7.486491907130659</v>
+        <v>7.4641045</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>7.4641045</v>
+        <v>7.461092499999999</v>
       </c>
       <c r="C154">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="E154">
-        <v>7.4641045</v>
+        <v>7.461092499999999</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155">
-        <v>7.461092499999999</v>
+        <v>44.6005070094817</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E155">
-        <v>7.461092499999999</v>
+        <v>7.433417834913616</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156">
-        <v>44.6005070094817</v>
+        <v>59.43969922539403</v>
       </c>
       <c r="C156">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D156">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E156">
-        <v>7.433417834913616</v>
+        <v>7.429962403174254</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157">
-        <v>59.43969922539403</v>
+        <v>422.2723066068994</v>
       </c>
       <c r="C157">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D157">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E157">
-        <v>7.429962403174254</v>
+        <v>7.408286080822797</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158">
-        <v>422.2723066068994</v>
+        <v>110.6385883255472</v>
       </c>
       <c r="C158">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D158">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E158">
-        <v>7.408286080822797</v>
+        <v>7.375905888369815</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159">
-        <v>110.6385883255472</v>
+        <v>7.2855</v>
       </c>
       <c r="C159">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D159">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>7.375905888369815</v>
+        <v>7.2855</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160">
-        <v>7.2855</v>
+        <v>181.6984913429089</v>
       </c>
       <c r="C160">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E160">
-        <v>7.2855</v>
+        <v>7.267939653716357</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161">
-        <v>181.6984913429089</v>
+        <v>217.7125858558693</v>
       </c>
       <c r="C161">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D161">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E161">
-        <v>7.267939653716357</v>
+        <v>7.257086195195645</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162">
-        <v>217.7125858558693</v>
+        <v>36.20881243362746</v>
       </c>
       <c r="C162">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D162">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E162">
-        <v>7.257086195195645</v>
+        <v>7.241762486725491</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163">
-        <v>36.20881243362746</v>
+        <v>85.33694624529932</v>
       </c>
       <c r="C163">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E163">
-        <v>7.241762486725491</v>
+        <v>7.111412187108276</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164">
-        <v>199.9131493614543</v>
+        <v>127.2667968180556</v>
       </c>
       <c r="C164">
         <v>14</v>
       </c>
       <c r="D164">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E164">
-        <v>7.139755334337652</v>
+        <v>7.070377601003086</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165">
-        <v>85.33694624529932</v>
+        <v>49.4606791678272</v>
       </c>
       <c r="C165">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D165">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E165">
-        <v>7.111412187108276</v>
+        <v>7.0658113096896</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166">
-        <v>49.4606791678272</v>
+        <v>14.10509165355731</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D166">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>7.0658113096896</v>
+        <v>7.052545826778656</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167">
-        <v>14.10509165355731</v>
+        <v>278.6185926724665</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E167">
-        <v>7.052545826778656</v>
+        <v>6.965464816811663</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168">
-        <v>112.0232501387053</v>
+        <v>262.9129144439094</v>
       </c>
       <c r="C168">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D168">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E168">
-        <v>7.001453133669082</v>
+        <v>6.918760906418669</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169">
-        <v>262.9129144439094</v>
+        <v>338.8264865868352</v>
       </c>
       <c r="C169">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D169">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E169">
-        <v>6.918760906418669</v>
+        <v>6.914826256874188</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170">
-        <v>144.600178189484</v>
+        <v>117.3090626662181</v>
       </c>
       <c r="C170">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D170">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E170">
-        <v>6.885722770927809</v>
+        <v>6.900533098012827</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171">
-        <v>48.17570655168686</v>
+        <v>144.600178189484</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D171">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E171">
-        <v>6.882243793098124</v>
+        <v>6.885722770927809</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172">
-        <v>405.1679914255661</v>
+        <v>48.17570655168686</v>
       </c>
       <c r="C172">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D172">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E172">
-        <v>6.867254091958747</v>
+        <v>6.882243793098124</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173">
         <v>89.22586242889031</v>
@@ -4013,987 +4001,936 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174">
-        <v>342.0299937946686</v>
+        <v>115.9218018219186</v>
       </c>
       <c r="C174">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D174">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E174">
-        <v>6.840599875893372</v>
+        <v>6.81892951893639</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175">
-        <v>115.9218018219186</v>
+        <v>149.8099070856147</v>
       </c>
       <c r="C175">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D175">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E175">
-        <v>6.81892951893639</v>
+        <v>6.809541231164306</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176">
-        <v>149.8099070856147</v>
+        <v>13.38320713560606</v>
       </c>
       <c r="C176">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D176">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E176">
-        <v>6.809541231164306</v>
+        <v>6.69160356780303</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177">
-        <v>13.38320713560606</v>
+        <v>39.98533990986562</v>
       </c>
       <c r="C177">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E177">
-        <v>6.69160356780303</v>
+        <v>6.664223318310937</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178">
-        <v>180.1688479161946</v>
+        <v>19.91961337802198</v>
       </c>
       <c r="C178">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>6.672920293192391</v>
+        <v>6.639871126007326</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179">
-        <v>39.98533990986562</v>
+        <v>66.11160371348285</v>
       </c>
       <c r="C179">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D179">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E179">
-        <v>6.664223318310937</v>
+        <v>6.611160371348285</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180">
-        <v>19.91961337802198</v>
+        <v>45.97728792569659</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E180">
-        <v>6.639871126007326</v>
+        <v>6.568183989385227</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181">
-        <v>66.11160371348285</v>
+        <v>65.11463557011371</v>
       </c>
       <c r="C181">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D181">
         <v>10</v>
       </c>
       <c r="E181">
-        <v>6.611160371348285</v>
+        <v>6.51146355701137</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182">
-        <v>45.97728792569659</v>
+        <v>104.1679918430326</v>
       </c>
       <c r="C182">
         <v>10</v>
       </c>
       <c r="D182">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E182">
-        <v>6.568183989385227</v>
+        <v>6.510499490189535</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183">
-        <v>65.11463557011371</v>
+        <v>6.428666666666667</v>
       </c>
       <c r="C183">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D183">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>6.51146355701137</v>
+        <v>6.428666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184">
-        <v>104.1679918430326</v>
+        <v>57.39876650060128</v>
       </c>
       <c r="C184">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E184">
-        <v>6.510499490189535</v>
+        <v>6.377640722289031</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185">
-        <v>6.428666666666667</v>
+        <v>19.02437827036199</v>
       </c>
       <c r="C185">
+        <v>12</v>
+      </c>
+      <c r="D185">
         <v>3</v>
       </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
       <c r="E185">
-        <v>6.428666666666667</v>
+        <v>6.341459423453998</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186">
-        <v>57.39876650060128</v>
+        <v>31.55932022748539</v>
       </c>
       <c r="C186">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D186">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E186">
-        <v>6.377640722289031</v>
+        <v>6.311864045497077</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187">
-        <v>19.02437827036199</v>
+        <v>37.41219757410303</v>
       </c>
       <c r="C187">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>6.341459423453998</v>
+        <v>6.235366262350504</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188">
-        <v>31.55932022748539</v>
+        <v>136.7673301273109</v>
       </c>
       <c r="C188">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D188">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E188">
-        <v>6.311864045497077</v>
+        <v>6.216696823968678</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189">
-        <v>37.41219757410303</v>
+        <v>30.8516978097829</v>
       </c>
       <c r="C189">
+        <v>20</v>
+      </c>
+      <c r="D189">
         <v>5</v>
       </c>
-      <c r="D189">
-        <v>6</v>
-      </c>
       <c r="E189">
-        <v>6.235366262350504</v>
+        <v>6.170339561956579</v>
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="1" t="s">
-        <v>191</v>
+      <c r="A190" s="1">
+        <v>120201372</v>
       </c>
       <c r="B190">
-        <v>136.7673301273109</v>
+        <v>18.43413937164686</v>
       </c>
       <c r="C190">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D190">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E190">
-        <v>6.216696823968678</v>
+        <v>6.144713123882287</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B191">
-        <v>30.8516978097829</v>
+        <v>227.0474741610021</v>
       </c>
       <c r="C191">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E191">
-        <v>6.170339561956579</v>
+        <v>6.136418220567624</v>
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="1">
-        <v>120201372</v>
+      <c r="A192" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B192">
-        <v>18.43413937164686</v>
+        <v>104.27043474825</v>
       </c>
       <c r="C192">
         <v>10</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E192">
-        <v>6.144713123882287</v>
+        <v>6.133554985191174</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193">
-        <v>227.0474741610021</v>
+        <v>218.7174584901944</v>
       </c>
       <c r="C193">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D193">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E193">
-        <v>6.136418220567624</v>
+        <v>6.075484958060955</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194">
-        <v>104.27043474825</v>
+        <v>30.34500716103896</v>
       </c>
       <c r="C194">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D194">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E194">
-        <v>6.133554985191174</v>
+        <v>6.069001432207793</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195">
-        <v>218.7174584901944</v>
+        <v>24.26656389937704</v>
       </c>
       <c r="C195">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E195">
-        <v>6.075484958060955</v>
+        <v>6.066640974844259</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196">
-        <v>30.34500716103896</v>
+        <v>48.19111758503663</v>
       </c>
       <c r="C196">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E196">
-        <v>6.069001432207793</v>
+        <v>6.023889698129579</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197">
-        <v>24.26656389937704</v>
+        <v>11.85975139705882</v>
       </c>
       <c r="C197">
+        <v>10</v>
+      </c>
+      <c r="D197">
         <v>2</v>
       </c>
-      <c r="D197">
-        <v>4</v>
-      </c>
       <c r="E197">
-        <v>6.066640974844259</v>
+        <v>5.929875698529412</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198">
-        <v>48.19111758503663</v>
+        <v>47.00803470714286</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D198">
         <v>8</v>
       </c>
       <c r="E198">
-        <v>6.023889698129579</v>
+        <v>5.876004338392858</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199">
-        <v>23.94116414294872</v>
+        <v>46.23761593333334</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D199">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E199">
-        <v>5.98529103573718</v>
+        <v>5.779701991666667</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200">
-        <v>11.85975139705882</v>
+        <v>57.70881952988166</v>
       </c>
       <c r="C200">
+        <v>12</v>
+      </c>
+      <c r="D200">
         <v>10</v>
       </c>
-      <c r="D200">
-        <v>2</v>
-      </c>
       <c r="E200">
-        <v>5.929875698529412</v>
+        <v>5.770881952988166</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201">
-        <v>47.00803470714286</v>
+        <v>34.59468990325611</v>
       </c>
       <c r="C201">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E201">
-        <v>5.876004338392858</v>
+        <v>5.765781650542685</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202">
-        <v>46.23761593333334</v>
+        <v>11.51722503571429</v>
       </c>
       <c r="C202">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D202">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E202">
-        <v>5.779701991666667</v>
+        <v>5.758612517857143</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203">
-        <v>57.70881952988166</v>
+        <v>57.46153152448512</v>
       </c>
       <c r="C203">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D203">
         <v>10</v>
       </c>
       <c r="E203">
-        <v>5.770881952988166</v>
+        <v>5.746153152448512</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204">
-        <v>34.59468990325611</v>
+        <v>96.7397426393821</v>
       </c>
       <c r="C204">
         <v>10</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E204">
-        <v>5.765781650542685</v>
+        <v>5.690573096434242</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205">
-        <v>11.51722503571429</v>
+        <v>101.1853256376623</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E205">
-        <v>5.758612517857143</v>
+        <v>5.62140697987013</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206">
-        <v>96.7397426393821</v>
+        <v>67.14411150463883</v>
       </c>
       <c r="C206">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D206">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E206">
-        <v>5.690573096434242</v>
+        <v>5.595342625386569</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207">
-        <v>101.1853256376623</v>
+        <v>11.13297564761905</v>
       </c>
       <c r="C207">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D207">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E207">
-        <v>5.62140697987013</v>
+        <v>5.566487823809524</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208">
-        <v>67.14411150463883</v>
+        <v>38.74230787805694</v>
       </c>
       <c r="C208">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E208">
-        <v>5.595342625386569</v>
+        <v>5.534615411150992</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209">
-        <v>11.13297564761905</v>
+        <v>22.12016404131313</v>
       </c>
       <c r="C209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E209">
-        <v>5.566487823809524</v>
+        <v>5.530041010328283</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210">
-        <v>38.74230787805694</v>
+        <v>115.6731212771891</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D210">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E210">
-        <v>5.534615411150992</v>
+        <v>5.508243870342337</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211">
-        <v>22.12016404131313</v>
+        <v>20.84850895053764</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D211">
         <v>4</v>
       </c>
       <c r="E211">
-        <v>5.530041010328283</v>
+        <v>5.212127237634409</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212">
-        <v>115.6731212771891</v>
+        <v>10.06834283428571</v>
       </c>
       <c r="C212">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D212">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E212">
-        <v>5.508243870342337</v>
+        <v>5.034171417142857</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213">
-        <v>20.84850895053764</v>
+        <v>24.74920294094181</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D213">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E213">
-        <v>5.212127237634409</v>
+        <v>4.949840588188361</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214">
-        <v>10.06834283428571</v>
+        <v>39.13575596547149</v>
       </c>
       <c r="C214">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>5.034171417142857</v>
+        <v>4.891969495683936</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215">
-        <v>24.74920294094181</v>
+        <v>18.99847878487395</v>
       </c>
       <c r="C215">
         <v>5</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E215">
-        <v>4.949840588188361</v>
+        <v>4.749619696218488</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216">
-        <v>39.13575596547149</v>
+        <v>23.74561838412698</v>
       </c>
       <c r="C216">
         <v>12</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E216">
-        <v>4.891969495683936</v>
+        <v>4.749123676825397</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217">
-        <v>18.99847878487395</v>
+        <v>18.92785235921053</v>
       </c>
       <c r="C217">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D217">
         <v>4</v>
       </c>
       <c r="E217">
-        <v>4.749619696218488</v>
+        <v>4.731963089802632</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218">
-        <v>23.74561838412698</v>
+        <v>9.3749593</v>
       </c>
       <c r="C218">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D218">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E218">
-        <v>4.749123676825397</v>
+        <v>4.68747965</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219">
-        <v>18.92785235921053</v>
+        <v>22.77572784805195</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>4.731963089802632</v>
+        <v>4.55514556961039</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220">
-        <v>18.78121488615384</v>
+        <v>4.549011</v>
       </c>
       <c r="C220">
         <v>3</v>
       </c>
       <c r="D220">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>4.695303721538461</v>
+        <v>4.549011</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221">
-        <v>9.3749593</v>
+        <v>9.011896957142859</v>
       </c>
       <c r="C221">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D221">
         <v>2</v>
       </c>
       <c r="E221">
-        <v>4.68747965</v>
+        <v>4.50594847857143</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222">
-        <v>22.77572784805195</v>
+        <v>45.00756551217831</v>
       </c>
       <c r="C222">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D222">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E222">
-        <v>4.55514556961039</v>
+        <v>4.500756551217831</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223">
-        <v>4.549011</v>
+        <v>16.54319780730861</v>
       </c>
       <c r="C223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E223">
-        <v>4.549011</v>
+        <v>4.135799451827153</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224">
-        <v>9.011896957142859</v>
+        <v>14.18051117071429</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E224">
-        <v>4.50594847857143</v>
+        <v>3.545127792678572</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225">
-        <v>45.00756551217831</v>
+        <v>20.84201861070561</v>
       </c>
       <c r="C225">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D225">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E225">
-        <v>4.500756551217831</v>
+        <v>3.473669768450935</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226">
-        <v>16.54319780730861</v>
+        <v>6.129154362857142</v>
       </c>
       <c r="C226">
+        <v>5</v>
+      </c>
+      <c r="D226">
         <v>2</v>
       </c>
-      <c r="D226">
-        <v>4</v>
-      </c>
       <c r="E226">
-        <v>4.135799451827153</v>
+        <v>3.064577181428571</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227">
-        <v>14.18051117071429</v>
+        <v>12.11606824761905</v>
       </c>
       <c r="C227">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D227">
         <v>4</v>
       </c>
       <c r="E227">
-        <v>3.545127792678572</v>
+        <v>3.029017061904762</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228">
-        <v>20.84201861070561</v>
+        <v>11.13946967662338</v>
       </c>
       <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228">
         <v>4</v>
       </c>
-      <c r="D228">
-        <v>6</v>
-      </c>
       <c r="E228">
-        <v>3.473669768450935</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B229">
-        <v>6.129154362857142</v>
-      </c>
-      <c r="C229">
-        <v>5</v>
-      </c>
-      <c r="D229">
-        <v>2</v>
-      </c>
-      <c r="E229">
-        <v>3.064577181428571</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B230">
-        <v>12.11606824761905</v>
-      </c>
-      <c r="C230">
-        <v>2</v>
-      </c>
-      <c r="D230">
-        <v>4</v>
-      </c>
-      <c r="E230">
-        <v>3.029017061904762</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B231">
-        <v>11.13946967662338</v>
-      </c>
-      <c r="C231">
-        <v>2</v>
-      </c>
-      <c r="D231">
-        <v>4</v>
-      </c>
-      <c r="E231">
         <v>2.784867419155844</v>
       </c>
     </row>
